--- a/out/production/IS_Project/ProjectTimeSheet.xlsx
+++ b/out/production/IS_Project/ProjectTimeSheet.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/thomas_denys_ugent_be/Documents/Documenten/GroupProject2122-misproject-23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{63DC910D-5706-8441-BB04-56402EA4027A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F3B4828-6822-4D94-9D64-EA1C43EB7DCF}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{63DC910D-5706-8441-BB04-56402EA4027A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{648B8612-BBB2-4698-835D-AEC6072DE983}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7DBD4D98-2EF9-9346-8A95-B7AACF5A1F53}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{7DBD4D98-2EF9-9346-8A95-B7AACF5A1F53}"/>
   </bookViews>
   <sheets>
-    <sheet name="Student 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Student 2" sheetId="3" r:id="rId2"/>
-    <sheet name="Student 3" sheetId="2" r:id="rId3"/>
-    <sheet name="Student 4" sheetId="4" r:id="rId4"/>
-    <sheet name="Student 5" sheetId="5" r:id="rId5"/>
-    <sheet name="Student 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Thomas" sheetId="1" r:id="rId1"/>
+    <sheet name="Tristan" sheetId="3" r:id="rId2"/>
+    <sheet name="Emiel" sheetId="2" r:id="rId3"/>
+    <sheet name="Leon" sheetId="4" r:id="rId4"/>
+    <sheet name="Hanne" sheetId="5" r:id="rId5"/>
+    <sheet name="Milan" sheetId="6" r:id="rId6"/>
     <sheet name="Summary" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="58">
   <si>
     <t>First Name:</t>
   </si>
@@ -117,19 +117,7 @@
     <t>Milan</t>
   </si>
   <si>
-    <t>Visser</t>
-  </si>
-  <si>
     <t>Brainstorming about conceptual model</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>Installing en learning to work with the programs</t>
-  </si>
-  <si>
-    <t>1h</t>
   </si>
   <si>
     <t>Construct E(E)R model + writing down ideas about design</t>
@@ -150,9 +138,6 @@
     <t>Running problem in IntelliJ + FXML files</t>
   </si>
   <si>
-    <t>4h</t>
-  </si>
-  <si>
     <t>Report: System design and implementation</t>
   </si>
   <si>
@@ -161,12 +146,80 @@
   <si>
     <t>6h</t>
   </si>
+  <si>
+    <t>Time Spent (hours)</t>
+  </si>
+  <si>
+    <t>Getting to know the group members and discussion of
+the overall approach</t>
+  </si>
+  <si>
+    <t>Conceptual model</t>
+  </si>
+  <si>
+    <t>Conceptual model and relational model</t>
+  </si>
+  <si>
+    <t>MySQL workbench</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Adapt conceptual and relational model</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Relational model, Report</t>
+  </si>
+  <si>
+    <t>Conceptual model, Relational model, and Report</t>
+  </si>
+  <si>
+    <t>Finishing touch</t>
+  </si>
+  <si>
+    <t>MySQL Workbench</t>
+  </si>
+  <si>
+    <t>MySQL Workbench and code</t>
+  </si>
+  <si>
+    <t>Adapt MySQL Workbench and Code</t>
+  </si>
+  <si>
+    <t>System design and implemention</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>System design and implemention, Report</t>
+  </si>
+  <si>
+    <t>Installing en learning to work with the programs + getting to know the group members and discussion of
+the overall approach</t>
+  </si>
+  <si>
+    <t>7h</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>9h</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -195,6 +248,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -204,7 +264,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -355,15 +415,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -378,6 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -402,17 +471,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -729,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62B0801-CF05-CC46-96AA-B7E2F5C6916C}">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -740,7 +832,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
@@ -750,7 +842,7 @@
       <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -760,7 +852,7 @@
       <c r="D2" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -770,38 +862,38 @@
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30">
+    <row r="5" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
         <v>44515</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>29</v>
+      <c r="B5" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="23"/>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
+      <c r="A6" s="17">
         <v>44517</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="4" t="s">
-        <v>30</v>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -811,99 +903,111 @@
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
+      <c r="A8" s="17">
         <v>44523</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="17">
+        <v>44529</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
+      <c r="A10" s="17">
         <v>44531</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="4" t="s">
-        <v>32</v>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="17">
+        <v>44532</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
+      <c r="A12" s="17">
         <v>44536</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="4" t="s">
-        <v>32</v>
+      <c r="G12" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30">
+      <c r="A13" s="17">
         <v>44537</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="4" t="s">
-        <v>37</v>
+      <c r="G13" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
+      <c r="A14" s="17">
         <v>44538</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="4" t="s">
-        <v>32</v>
+      <c r="G14" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -913,70 +1017,82 @@
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30">
+      <c r="A16" s="17">
         <v>44543</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="4" t="s">
-        <v>37</v>
+      <c r="G16" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="17">
+        <v>44544</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30">
+      <c r="A18" s="17">
         <v>44545</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="4" t="s">
-        <v>37</v>
+      <c r="G18" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>16</v>
+      <c r="A19" s="17">
+        <v>44546</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="4" t="s">
-        <v>40</v>
+      <c r="G19" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="17">
+        <v>44547</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>46</v>
+      </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="4"/>
+      <c r="G20" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -985,7 +1101,7 @@
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="4"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
@@ -994,7 +1110,7 @@
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="4"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
@@ -1003,7 +1119,7 @@
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="4"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
@@ -1012,7 +1128,7 @@
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="4"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
@@ -1021,7 +1137,7 @@
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="4"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
@@ -1030,7 +1146,7 @@
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="4"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
@@ -1039,7 +1155,7 @@
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="4"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
@@ -1048,7 +1164,7 @@
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="4"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
@@ -1057,7 +1173,7 @@
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="4"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
@@ -1066,7 +1182,7 @@
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="4"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
@@ -1075,7 +1191,7 @@
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="4"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
@@ -1084,7 +1200,7 @@
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="4"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
@@ -1093,7 +1209,7 @@
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="4"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
@@ -1102,7 +1218,7 @@
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="4"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
@@ -1111,7 +1227,7 @@
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="4"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
@@ -1120,7 +1236,7 @@
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="4"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
@@ -1129,7 +1245,7 @@
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="4"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
@@ -1138,7 +1254,7 @@
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="4"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
@@ -1147,7 +1263,7 @@
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="4"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
@@ -1156,7 +1272,7 @@
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="20"/>
-      <c r="G40" s="4"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
@@ -1165,7 +1281,7 @@
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="4"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
@@ -1174,7 +1290,7 @@
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="4"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
@@ -1183,7 +1299,7 @@
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="4"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
@@ -1192,7 +1308,7 @@
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="4"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
@@ -1201,7 +1317,7 @@
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="4"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
@@ -1210,7 +1326,7 @@
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="4"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
@@ -1219,7 +1335,7 @@
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="20"/>
-      <c r="G47" s="4"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
@@ -1228,7 +1344,7 @@
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="4"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
@@ -1237,7 +1353,7 @@
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="4"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
@@ -1246,7 +1362,7 @@
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="4"/>
+      <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
@@ -1255,7 +1371,7 @@
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="4"/>
+      <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
@@ -1264,7 +1380,7 @@
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="4"/>
+      <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
@@ -1273,7 +1389,7 @@
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="4"/>
+      <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
@@ -1282,7 +1398,7 @@
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="4"/>
+      <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
@@ -1291,7 +1407,7 @@
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="4"/>
+      <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
@@ -1300,7 +1416,7 @@
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="4"/>
+      <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
@@ -1309,7 +1425,7 @@
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" s="20"/>
-      <c r="G57" s="4"/>
+      <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
@@ -1318,7 +1434,7 @@
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="4"/>
+      <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
@@ -1327,7 +1443,7 @@
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="4"/>
+      <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
@@ -1336,7 +1452,7 @@
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="4"/>
+      <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
@@ -1345,7 +1461,7 @@
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="4"/>
+      <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
@@ -1354,7 +1470,7 @@
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="4"/>
+      <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
@@ -1363,7 +1479,7 @@
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="4"/>
+      <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
@@ -1372,7 +1488,7 @@
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="4"/>
+      <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
@@ -1381,7 +1497,7 @@
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="4"/>
+      <c r="G65" s="3"/>
     </row>
     <row r="66" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
@@ -1390,7 +1506,7 @@
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="4"/>
+      <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
@@ -1399,7 +1515,7 @@
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="4"/>
+      <c r="G67" s="3"/>
     </row>
     <row r="68" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
@@ -1408,7 +1524,7 @@
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="4"/>
+      <c r="G68" s="3"/>
     </row>
     <row r="69" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
@@ -1417,7 +1533,7 @@
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="4"/>
+      <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
@@ -1426,7 +1542,7 @@
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="4"/>
+      <c r="G70" s="3"/>
     </row>
     <row r="71" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
@@ -1435,7 +1551,7 @@
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="4"/>
+      <c r="G71" s="3"/>
     </row>
     <row r="72" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
@@ -1444,7 +1560,7 @@
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="4"/>
+      <c r="G72" s="3"/>
     </row>
     <row r="73" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
@@ -1453,7 +1569,7 @@
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="4"/>
+      <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
@@ -1462,7 +1578,7 @@
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="4"/>
+      <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
@@ -1471,7 +1587,7 @@
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="4"/>
+      <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
@@ -1480,7 +1596,7 @@
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="4"/>
+      <c r="G76" s="3"/>
     </row>
     <row r="77" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
@@ -1489,7 +1605,7 @@
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="4"/>
+      <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
@@ -1498,7 +1614,7 @@
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="4"/>
+      <c r="G78" s="3"/>
     </row>
     <row r="79" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
@@ -1507,7 +1623,7 @@
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="4"/>
+      <c r="G79" s="3"/>
     </row>
     <row r="80" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
@@ -1516,7 +1632,7 @@
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="4"/>
+      <c r="G80" s="3"/>
     </row>
     <row r="81" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
@@ -1525,7 +1641,7 @@
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="4"/>
+      <c r="G81" s="3"/>
     </row>
     <row r="82" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
@@ -1534,16 +1650,16 @@
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="4"/>
+      <c r="G82" s="3"/>
     </row>
     <row r="83" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
-      <c r="B83" s="27"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="26"/>
       <c r="C83" s="24"/>
       <c r="D83" s="24"/>
       <c r="E83" s="24"/>
       <c r="F83" s="25"/>
-      <c r="G83" s="7"/>
+      <c r="G83" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="82">
@@ -1640,7 +1756,7 @@
   <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1650,750 +1766,834 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="8"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>44515</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="A6" s="28">
+        <v>44517</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="9"/>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="A7" s="28">
+        <v>44523</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="A8" s="28">
+        <v>44529</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="9"/>
+      <c r="G8" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="A9" s="28">
+        <v>44531</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="A10" s="28">
+        <v>44532</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="A11" s="28">
+        <v>44536</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="9"/>
+      <c r="G11" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="A12" s="28">
+        <v>44537</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="A13" s="28">
+        <v>44538</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="A14" s="28">
+        <v>44543</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="A15" s="28">
+        <v>44544</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="A16" s="31">
+        <v>44545</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="9"/>
+      <c r="G16" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="A17" s="31">
+        <v>44546</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="9"/>
+      <c r="G17" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="A18" s="28">
+        <v>44547</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="9"/>
+      <c r="G18" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="9"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="9"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="9"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="9"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="9"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="9"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="9"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="9"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="9"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="9"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="9"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="9"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="9"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="9"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="18"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="9"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="9"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="9"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="9"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="9"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="9"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="9"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="20"/>
-      <c r="G40" s="9"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="9"/>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="9"/>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="9"/>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="9"/>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="9"/>
+      <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="18"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="9"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="18"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="20"/>
-      <c r="G47" s="9"/>
+      <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="9"/>
+      <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="9"/>
+      <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="18"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="9"/>
+      <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="9"/>
+      <c r="G51" s="8"/>
     </row>
     <row r="52" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="18"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="9"/>
+      <c r="G52" s="8"/>
     </row>
     <row r="53" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="18"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="9"/>
+      <c r="G53" s="8"/>
     </row>
     <row r="54" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="18"/>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="9"/>
+      <c r="G54" s="8"/>
     </row>
     <row r="55" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="18"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="9"/>
+      <c r="G55" s="8"/>
     </row>
     <row r="56" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="18"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="9"/>
+      <c r="G56" s="8"/>
     </row>
     <row r="57" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
+      <c r="A57" s="8"/>
       <c r="B57" s="18"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" s="20"/>
-      <c r="G57" s="9"/>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="9"/>
+      <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="9"/>
+      <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="18"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="9"/>
+      <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="9"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="18"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="9"/>
+      <c r="G61" s="8"/>
     </row>
     <row r="62" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="9"/>
+      <c r="A62" s="8"/>
       <c r="B62" s="18"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="9"/>
+      <c r="G62" s="8"/>
     </row>
     <row r="63" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="9"/>
+      <c r="G63" s="8"/>
     </row>
     <row r="64" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9"/>
+      <c r="A64" s="8"/>
       <c r="B64" s="18"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="9"/>
+      <c r="G64" s="8"/>
     </row>
     <row r="65" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9"/>
+      <c r="A65" s="8"/>
       <c r="B65" s="18"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="9"/>
+      <c r="G65" s="8"/>
     </row>
     <row r="66" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="9"/>
+      <c r="A66" s="8"/>
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="9"/>
+      <c r="G66" s="8"/>
     </row>
     <row r="67" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="18"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="9"/>
+      <c r="G67" s="8"/>
     </row>
     <row r="68" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="9"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="18"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="9"/>
+      <c r="G68" s="8"/>
     </row>
     <row r="69" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="9"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="18"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="9"/>
+      <c r="G69" s="8"/>
     </row>
     <row r="70" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="9"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="9"/>
+      <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="9"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="18"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="9"/>
+      <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="9"/>
+      <c r="A72" s="8"/>
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="9"/>
+      <c r="G72" s="8"/>
     </row>
     <row r="73" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="9"/>
+      <c r="A73" s="8"/>
       <c r="B73" s="18"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="9"/>
+      <c r="G73" s="8"/>
     </row>
     <row r="74" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="9"/>
+      <c r="A74" s="8"/>
       <c r="B74" s="18"/>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="9"/>
+      <c r="G74" s="8"/>
     </row>
     <row r="75" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="9"/>
+      <c r="A75" s="8"/>
       <c r="B75" s="18"/>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="9"/>
+      <c r="G75" s="8"/>
     </row>
     <row r="76" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="9"/>
+      <c r="A76" s="8"/>
       <c r="B76" s="18"/>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="9"/>
+      <c r="G76" s="8"/>
     </row>
     <row r="77" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="9"/>
+      <c r="A77" s="8"/>
       <c r="B77" s="18"/>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="9"/>
+      <c r="G77" s="8"/>
     </row>
     <row r="78" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="9"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="18"/>
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="9"/>
+      <c r="G78" s="8"/>
     </row>
     <row r="79" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="9"/>
+      <c r="A79" s="8"/>
       <c r="B79" s="18"/>
       <c r="C79" s="19"/>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="9"/>
+      <c r="G79" s="8"/>
     </row>
     <row r="80" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="9"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="18"/>
       <c r="C80" s="19"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="9"/>
+      <c r="G80" s="8"/>
     </row>
     <row r="81" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="9"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="18"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="9"/>
+      <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="9"/>
+      <c r="A82" s="8"/>
       <c r="B82" s="18"/>
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="9"/>
+      <c r="G82" s="8"/>
     </row>
     <row r="83" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="10"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="10"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="81">
@@ -2489,7 +2689,7 @@
   <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2499,750 +2699,834 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="8"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>44515</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="A6" s="28">
+        <v>44517</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="9"/>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="A7" s="28">
+        <v>44523</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="A8" s="28">
+        <v>44529</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="9"/>
+      <c r="G8" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="A9" s="28">
+        <v>44531</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="A10" s="28">
+        <v>44532</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="A11" s="28">
+        <v>44536</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="9"/>
+      <c r="G11" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="A12" s="28">
+        <v>44537</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="A13" s="28">
+        <v>44538</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="A14" s="28">
+        <v>44543</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="A15" s="28">
+        <v>44544</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="A16" s="31">
+        <v>44545</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="9"/>
+      <c r="G16" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="A17" s="31">
+        <v>44546</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="9"/>
+      <c r="G17" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="A18" s="28">
+        <v>44547</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="9"/>
+      <c r="G18" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="9"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="9"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="9"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="9"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="9"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="9"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="9"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="9"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="9"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="9"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="9"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="9"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="9"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="9"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="18"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="9"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="9"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="9"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="9"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="9"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="9"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="9"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="20"/>
-      <c r="G40" s="9"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="9"/>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="9"/>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="9"/>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="9"/>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="9"/>
+      <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="18"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="9"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="18"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="20"/>
-      <c r="G47" s="9"/>
+      <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="9"/>
+      <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="9"/>
+      <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="18"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="9"/>
+      <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="9"/>
+      <c r="G51" s="8"/>
     </row>
     <row r="52" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="18"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="9"/>
+      <c r="G52" s="8"/>
     </row>
     <row r="53" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="18"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="9"/>
+      <c r="G53" s="8"/>
     </row>
     <row r="54" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="18"/>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="9"/>
+      <c r="G54" s="8"/>
     </row>
     <row r="55" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="18"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="9"/>
+      <c r="G55" s="8"/>
     </row>
     <row r="56" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="18"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="9"/>
+      <c r="G56" s="8"/>
     </row>
     <row r="57" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
+      <c r="A57" s="8"/>
       <c r="B57" s="18"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" s="20"/>
-      <c r="G57" s="9"/>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="9"/>
+      <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="9"/>
+      <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="18"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="9"/>
+      <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="9"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="18"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="9"/>
+      <c r="G61" s="8"/>
     </row>
     <row r="62" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="9"/>
+      <c r="A62" s="8"/>
       <c r="B62" s="18"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="9"/>
+      <c r="G62" s="8"/>
     </row>
     <row r="63" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="9"/>
+      <c r="G63" s="8"/>
     </row>
     <row r="64" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9"/>
+      <c r="A64" s="8"/>
       <c r="B64" s="18"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="9"/>
+      <c r="G64" s="8"/>
     </row>
     <row r="65" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9"/>
+      <c r="A65" s="8"/>
       <c r="B65" s="18"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="9"/>
+      <c r="G65" s="8"/>
     </row>
     <row r="66" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="9"/>
+      <c r="A66" s="8"/>
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="9"/>
+      <c r="G66" s="8"/>
     </row>
     <row r="67" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="18"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="9"/>
+      <c r="G67" s="8"/>
     </row>
     <row r="68" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="9"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="18"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="9"/>
+      <c r="G68" s="8"/>
     </row>
     <row r="69" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="9"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="18"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="9"/>
+      <c r="G69" s="8"/>
     </row>
     <row r="70" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="9"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="9"/>
+      <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="9"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="18"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="9"/>
+      <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="9"/>
+      <c r="A72" s="8"/>
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="9"/>
+      <c r="G72" s="8"/>
     </row>
     <row r="73" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="9"/>
+      <c r="A73" s="8"/>
       <c r="B73" s="18"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="9"/>
+      <c r="G73" s="8"/>
     </row>
     <row r="74" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="9"/>
+      <c r="A74" s="8"/>
       <c r="B74" s="18"/>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="9"/>
+      <c r="G74" s="8"/>
     </row>
     <row r="75" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="9"/>
+      <c r="A75" s="8"/>
       <c r="B75" s="18"/>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="9"/>
+      <c r="G75" s="8"/>
     </row>
     <row r="76" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="9"/>
+      <c r="A76" s="8"/>
       <c r="B76" s="18"/>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="9"/>
+      <c r="G76" s="8"/>
     </row>
     <row r="77" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="9"/>
+      <c r="A77" s="8"/>
       <c r="B77" s="18"/>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="9"/>
+      <c r="G77" s="8"/>
     </row>
     <row r="78" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="9"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="18"/>
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="9"/>
+      <c r="G78" s="8"/>
     </row>
     <row r="79" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="9"/>
+      <c r="A79" s="8"/>
       <c r="B79" s="18"/>
       <c r="C79" s="19"/>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="9"/>
+      <c r="G79" s="8"/>
     </row>
     <row r="80" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="9"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="18"/>
       <c r="C80" s="19"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="9"/>
+      <c r="G80" s="8"/>
     </row>
     <row r="81" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="9"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="18"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="9"/>
+      <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="9"/>
+      <c r="A82" s="8"/>
       <c r="B82" s="18"/>
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="9"/>
+      <c r="G82" s="8"/>
     </row>
     <row r="83" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="10"/>
-      <c r="B83" s="27"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="26"/>
       <c r="C83" s="24"/>
       <c r="D83" s="24"/>
       <c r="E83" s="24"/>
       <c r="F83" s="25"/>
-      <c r="G83" s="10"/>
+      <c r="G83" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="82">
@@ -3339,7 +3623,7 @@
   <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3349,750 +3633,846 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="12" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>44515</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
+        <v>44517</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
+        <v>44518</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
+        <v>44519</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>44523</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="9"/>
-    </row>
     <row r="10" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="A10" s="28">
+        <v>44529</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="A11" s="28">
+        <v>44531</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="9"/>
+      <c r="G11" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="A12" s="28">
+        <v>44532</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="A13" s="28">
+        <v>44536</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="A14" s="28">
+        <v>44537</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="A15" s="28">
+        <v>44538</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="A16" s="28">
+        <v>44543</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="9"/>
+      <c r="G16" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="A17" s="28">
+        <v>44544</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="9"/>
+      <c r="G17" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="A18" s="31">
+        <v>44545</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="9"/>
+      <c r="G18" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="A19" s="31">
+        <v>44546</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="9"/>
+      <c r="G19" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="A20" s="28">
+        <v>44547</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="9"/>
+      <c r="G20" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="9"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="9"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="9"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="9"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="9"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="9"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="9"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="9"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="9"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="9"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="9"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="9"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="18"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="9"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="9"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="9"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="9"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="9"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="9"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="9"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="20"/>
-      <c r="G40" s="9"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="9"/>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="9"/>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="9"/>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="9"/>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="9"/>
+      <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="18"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="9"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="18"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="20"/>
-      <c r="G47" s="9"/>
+      <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="9"/>
+      <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="9"/>
+      <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="18"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="9"/>
+      <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="9"/>
+      <c r="G51" s="8"/>
     </row>
     <row r="52" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="18"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="9"/>
+      <c r="G52" s="8"/>
     </row>
     <row r="53" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="18"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="9"/>
+      <c r="G53" s="8"/>
     </row>
     <row r="54" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="18"/>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="9"/>
+      <c r="G54" s="8"/>
     </row>
     <row r="55" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="18"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="9"/>
+      <c r="G55" s="8"/>
     </row>
     <row r="56" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="18"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="9"/>
+      <c r="G56" s="8"/>
     </row>
     <row r="57" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
+      <c r="A57" s="8"/>
       <c r="B57" s="18"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" s="20"/>
-      <c r="G57" s="9"/>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="9"/>
+      <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="9"/>
+      <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="18"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="9"/>
+      <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="9"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="18"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="9"/>
+      <c r="G61" s="8"/>
     </row>
     <row r="62" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="9"/>
+      <c r="A62" s="8"/>
       <c r="B62" s="18"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="9"/>
+      <c r="G62" s="8"/>
     </row>
     <row r="63" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="9"/>
+      <c r="G63" s="8"/>
     </row>
     <row r="64" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9"/>
+      <c r="A64" s="8"/>
       <c r="B64" s="18"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="9"/>
+      <c r="G64" s="8"/>
     </row>
     <row r="65" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9"/>
+      <c r="A65" s="8"/>
       <c r="B65" s="18"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="9"/>
+      <c r="G65" s="8"/>
     </row>
     <row r="66" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="9"/>
+      <c r="A66" s="8"/>
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="9"/>
+      <c r="G66" s="8"/>
     </row>
     <row r="67" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="18"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="9"/>
+      <c r="G67" s="8"/>
     </row>
     <row r="68" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="9"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="18"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="9"/>
+      <c r="G68" s="8"/>
     </row>
     <row r="69" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="9"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="18"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="9"/>
+      <c r="G69" s="8"/>
     </row>
     <row r="70" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="9"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="9"/>
+      <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="9"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="18"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="9"/>
+      <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="9"/>
+      <c r="A72" s="8"/>
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="9"/>
+      <c r="G72" s="8"/>
     </row>
     <row r="73" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="9"/>
+      <c r="A73" s="8"/>
       <c r="B73" s="18"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="9"/>
+      <c r="G73" s="8"/>
     </row>
     <row r="74" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="9"/>
+      <c r="A74" s="8"/>
       <c r="B74" s="18"/>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="9"/>
+      <c r="G74" s="8"/>
     </row>
     <row r="75" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="9"/>
+      <c r="A75" s="8"/>
       <c r="B75" s="18"/>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="9"/>
+      <c r="G75" s="8"/>
     </row>
     <row r="76" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="9"/>
+      <c r="A76" s="8"/>
       <c r="B76" s="18"/>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="9"/>
+      <c r="G76" s="8"/>
     </row>
     <row r="77" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="9"/>
+      <c r="A77" s="8"/>
       <c r="B77" s="18"/>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="9"/>
+      <c r="G77" s="8"/>
     </row>
     <row r="78" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="9"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="18"/>
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="9"/>
+      <c r="G78" s="8"/>
     </row>
     <row r="79" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="9"/>
+      <c r="A79" s="8"/>
       <c r="B79" s="18"/>
       <c r="C79" s="19"/>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="9"/>
+      <c r="G79" s="8"/>
     </row>
     <row r="80" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="9"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="18"/>
       <c r="C80" s="19"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="9"/>
+      <c r="G80" s="8"/>
     </row>
     <row r="81" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="9"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="18"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="9"/>
+      <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="9"/>
+      <c r="A82" s="8"/>
       <c r="B82" s="18"/>
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="9"/>
+      <c r="G82" s="8"/>
     </row>
     <row r="83" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="10"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="10"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="81">
@@ -4188,7 +4568,7 @@
   <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4198,750 +4578,834 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="8"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>44515</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="A6" s="28">
+        <v>44517</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="9"/>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="A7" s="28">
+        <v>44523</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="A8" s="28">
+        <v>44529</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="9"/>
+      <c r="G8" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="A9" s="28">
+        <v>44531</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="A10" s="28">
+        <v>44532</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="A11" s="28">
+        <v>44536</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="9"/>
+      <c r="G11" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="A12" s="28">
+        <v>44537</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="A13" s="28">
+        <v>44538</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="A14" s="28">
+        <v>44543</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="A15" s="28">
+        <v>44544</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="A16" s="28">
+        <v>44545</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="9"/>
+      <c r="G16" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="A17" s="28">
+        <v>44546</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="9"/>
+      <c r="G17" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="A18" s="28">
+        <v>44547</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="9"/>
+      <c r="G18" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="9"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="9"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="9"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="9"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="9"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="9"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="9"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="9"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="9"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="9"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="9"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="9"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="9"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="9"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="18"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="9"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="9"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="9"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="9"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="9"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="9"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="9"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="20"/>
-      <c r="G40" s="9"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="9"/>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="9"/>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="9"/>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="9"/>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="9"/>
+      <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="18"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="9"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="18"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="20"/>
-      <c r="G47" s="9"/>
+      <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="9"/>
+      <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="9"/>
+      <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="18"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="9"/>
+      <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="9"/>
+      <c r="G51" s="8"/>
     </row>
     <row r="52" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="18"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="9"/>
+      <c r="G52" s="8"/>
     </row>
     <row r="53" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="18"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="9"/>
+      <c r="G53" s="8"/>
     </row>
     <row r="54" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="18"/>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="9"/>
+      <c r="G54" s="8"/>
     </row>
     <row r="55" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="18"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="9"/>
+      <c r="G55" s="8"/>
     </row>
     <row r="56" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="18"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="9"/>
+      <c r="G56" s="8"/>
     </row>
     <row r="57" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
+      <c r="A57" s="8"/>
       <c r="B57" s="18"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" s="20"/>
-      <c r="G57" s="9"/>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="9"/>
+      <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="9"/>
+      <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="18"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="9"/>
+      <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="9"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="18"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="9"/>
+      <c r="G61" s="8"/>
     </row>
     <row r="62" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="9"/>
+      <c r="A62" s="8"/>
       <c r="B62" s="18"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="9"/>
+      <c r="G62" s="8"/>
     </row>
     <row r="63" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="9"/>
+      <c r="G63" s="8"/>
     </row>
     <row r="64" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9"/>
+      <c r="A64" s="8"/>
       <c r="B64" s="18"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="9"/>
+      <c r="G64" s="8"/>
     </row>
     <row r="65" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9"/>
+      <c r="A65" s="8"/>
       <c r="B65" s="18"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="9"/>
+      <c r="G65" s="8"/>
     </row>
     <row r="66" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="9"/>
+      <c r="A66" s="8"/>
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="9"/>
+      <c r="G66" s="8"/>
     </row>
     <row r="67" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="18"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="9"/>
+      <c r="G67" s="8"/>
     </row>
     <row r="68" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="9"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="18"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="9"/>
+      <c r="G68" s="8"/>
     </row>
     <row r="69" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="9"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="18"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="9"/>
+      <c r="G69" s="8"/>
     </row>
     <row r="70" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="9"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="9"/>
+      <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="9"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="18"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="9"/>
+      <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="9"/>
+      <c r="A72" s="8"/>
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="9"/>
+      <c r="G72" s="8"/>
     </row>
     <row r="73" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="9"/>
+      <c r="A73" s="8"/>
       <c r="B73" s="18"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="9"/>
+      <c r="G73" s="8"/>
     </row>
     <row r="74" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="9"/>
+      <c r="A74" s="8"/>
       <c r="B74" s="18"/>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="9"/>
+      <c r="G74" s="8"/>
     </row>
     <row r="75" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="9"/>
+      <c r="A75" s="8"/>
       <c r="B75" s="18"/>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="9"/>
+      <c r="G75" s="8"/>
     </row>
     <row r="76" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="9"/>
+      <c r="A76" s="8"/>
       <c r="B76" s="18"/>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="9"/>
+      <c r="G76" s="8"/>
     </row>
     <row r="77" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="9"/>
+      <c r="A77" s="8"/>
       <c r="B77" s="18"/>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="9"/>
+      <c r="G77" s="8"/>
     </row>
     <row r="78" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="9"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="18"/>
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="9"/>
+      <c r="G78" s="8"/>
     </row>
     <row r="79" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="9"/>
+      <c r="A79" s="8"/>
       <c r="B79" s="18"/>
       <c r="C79" s="19"/>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="9"/>
+      <c r="G79" s="8"/>
     </row>
     <row r="80" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="9"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="18"/>
       <c r="C80" s="19"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="9"/>
+      <c r="G80" s="8"/>
     </row>
     <row r="81" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="9"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="18"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="9"/>
+      <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="9"/>
+      <c r="A82" s="8"/>
       <c r="B82" s="18"/>
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="9"/>
+      <c r="G82" s="8"/>
     </row>
     <row r="83" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="10"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="10"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="81">
@@ -5037,7 +5501,7 @@
   <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5047,750 +5511,840 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="12" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>44515</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
+        <v>44517</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
+        <v>44523</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
+        <v>44529</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>44531</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
+        <v>44532</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
+        <v>44535</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="9"/>
-    </row>
     <row r="12" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="A12" s="28">
+        <v>44536</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="A13" s="28">
+        <v>44537</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="A14" s="28">
+        <v>44538</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="A15" s="28">
+        <v>44543</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="A16" s="28">
+        <v>44544</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="9"/>
+      <c r="G16" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="A17" s="31">
+        <v>44545</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="9"/>
+      <c r="G17" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="A18" s="31">
+        <v>44546</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="9"/>
+      <c r="G18" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="9"/>
+      <c r="A19" s="32">
+        <v>44547</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="9"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="9"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="9"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="9"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="9"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="9"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="9"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="9"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="9"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="9"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="9"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="9"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="9"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="18"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="9"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="9"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="9"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="9"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="9"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="9"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="9"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="20"/>
-      <c r="G40" s="9"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="9"/>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="9"/>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="9"/>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="9"/>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="9"/>
+      <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="18"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="9"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="18"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="20"/>
-      <c r="G47" s="9"/>
+      <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="9"/>
+      <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="9"/>
+      <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="18"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="9"/>
+      <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="9"/>
+      <c r="G51" s="8"/>
     </row>
     <row r="52" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="18"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="9"/>
+      <c r="G52" s="8"/>
     </row>
     <row r="53" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="18"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="9"/>
+      <c r="G53" s="8"/>
     </row>
     <row r="54" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="18"/>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="9"/>
+      <c r="G54" s="8"/>
     </row>
     <row r="55" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="18"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="9"/>
+      <c r="G55" s="8"/>
     </row>
     <row r="56" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="18"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="9"/>
+      <c r="G56" s="8"/>
     </row>
     <row r="57" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
+      <c r="A57" s="8"/>
       <c r="B57" s="18"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" s="20"/>
-      <c r="G57" s="9"/>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="9"/>
+      <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="9"/>
+      <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="18"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="9"/>
+      <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="9"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="18"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="9"/>
+      <c r="G61" s="8"/>
     </row>
     <row r="62" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="9"/>
+      <c r="A62" s="8"/>
       <c r="B62" s="18"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="9"/>
+      <c r="G62" s="8"/>
     </row>
     <row r="63" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="9"/>
+      <c r="G63" s="8"/>
     </row>
     <row r="64" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9"/>
+      <c r="A64" s="8"/>
       <c r="B64" s="18"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="9"/>
+      <c r="G64" s="8"/>
     </row>
     <row r="65" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9"/>
+      <c r="A65" s="8"/>
       <c r="B65" s="18"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="9"/>
+      <c r="G65" s="8"/>
     </row>
     <row r="66" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="9"/>
+      <c r="A66" s="8"/>
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="9"/>
+      <c r="G66" s="8"/>
     </row>
     <row r="67" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="18"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="9"/>
+      <c r="G67" s="8"/>
     </row>
     <row r="68" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="9"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="18"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="9"/>
+      <c r="G68" s="8"/>
     </row>
     <row r="69" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="9"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="18"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="9"/>
+      <c r="G69" s="8"/>
     </row>
     <row r="70" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="9"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="9"/>
+      <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="9"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="18"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="9"/>
+      <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="9"/>
+      <c r="A72" s="8"/>
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="9"/>
+      <c r="G72" s="8"/>
     </row>
     <row r="73" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="9"/>
+      <c r="A73" s="8"/>
       <c r="B73" s="18"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="9"/>
+      <c r="G73" s="8"/>
     </row>
     <row r="74" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="9"/>
+      <c r="A74" s="8"/>
       <c r="B74" s="18"/>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="9"/>
+      <c r="G74" s="8"/>
     </row>
     <row r="75" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="9"/>
+      <c r="A75" s="8"/>
       <c r="B75" s="18"/>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="9"/>
+      <c r="G75" s="8"/>
     </row>
     <row r="76" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="9"/>
+      <c r="A76" s="8"/>
       <c r="B76" s="18"/>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="9"/>
+      <c r="G76" s="8"/>
     </row>
     <row r="77" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="9"/>
+      <c r="A77" s="8"/>
       <c r="B77" s="18"/>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="9"/>
+      <c r="G77" s="8"/>
     </row>
     <row r="78" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="9"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="18"/>
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="9"/>
+      <c r="G78" s="8"/>
     </row>
     <row r="79" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="9"/>
+      <c r="A79" s="8"/>
       <c r="B79" s="18"/>
       <c r="C79" s="19"/>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="9"/>
+      <c r="G79" s="8"/>
     </row>
     <row r="80" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="9"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="18"/>
       <c r="C80" s="19"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="9"/>
+      <c r="G80" s="8"/>
     </row>
     <row r="81" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="9"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="18"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="9"/>
+      <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="9"/>
+      <c r="A82" s="8"/>
       <c r="B82" s="18"/>
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="9"/>
+      <c r="G82" s="8"/>
     </row>
     <row r="83" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="10"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="10"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="81">
@@ -5885,8 +6439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473BD083-016A-6D46-8F64-8B0098FB8DDC}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5895,11 +6449,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -5907,76 +6461,88 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="3">
+        <v>81</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="3">
+        <v>81</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
